--- a/maps/22-23/Academic Plan.xlsx
+++ b/maps/22-23/Academic Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nscc.sharepoint.com/sites/academicchairitofficefiles/Shared Documents/_2023-24_Advising/Advising Maps/22-23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nscc-my.sharepoint.com/personal/w0518150_campus_nscc_ca/Documents/Documents/hackathon/NSCC-Hackathon-2025/maps/22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_8169D66471DB4E8C062E0E4DBD2755AFD8584780" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9FF0D9C-9955-4375-BD10-A1A3D58DB338}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_8169D66471DB4E8C062E0E4DBD2755AFD8584780" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F2078B0-DA74-4860-A6F2-D0346F5F0C1C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -249,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,11 +569,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069797A5-D39A-45EF-A971-865E07807AC5}">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.85546875" customWidth="1"/>
@@ -581,7 +581,7 @@
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -640,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -654,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -668,7 +668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2</v>
       </c>
@@ -690,7 +690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>2</v>
       </c>
@@ -701,7 +701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2</v>
       </c>
@@ -712,7 +712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>2</v>
       </c>
@@ -734,7 +734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>2</v>
       </c>
@@ -745,7 +745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>3</v>
       </c>
@@ -759,7 +759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>3</v>
       </c>
@@ -773,7 +773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>3</v>
       </c>
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>3</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>4</v>
       </c>
@@ -810,7 +810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>4</v>
       </c>
@@ -821,7 +821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>4</v>
       </c>
@@ -832,7 +832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>4</v>
       </c>
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>4</v>
       </c>
@@ -854,7 +854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>4</v>
       </c>
@@ -865,7 +865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>5</v>
       </c>
@@ -876,7 +876,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>5</v>
       </c>
@@ -887,7 +887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>5</v>
       </c>
@@ -898,7 +898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>5</v>
       </c>
@@ -909,7 +909,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>5</v>
       </c>
@@ -920,7 +920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>5</v>
       </c>
@@ -931,7 +931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>6</v>
       </c>
@@ -948,6 +948,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="d7ca9d09-e945-4454-89c0-0fb2428ab3c7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="1f90ba80-b527-4106-9f71-68cac0b6de9a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91079492-2b6a-49b1-9706-a9044452f153">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C0EE9DCE21FEC4F9A70312E7FE15FDA" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="625f75a1345754e0952518cabac67877">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="91079492-2b6a-49b1-9706-a9044452f153" xmlns:ns3="d7ca9d09-e945-4454-89c0-0fb2428ab3c7" xmlns:ns4="1f90ba80-b527-4106-9f71-68cac0b6de9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40756a24b7b365d93f2132c16c81fc01" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="91079492-2b6a-49b1-9706-a9044452f153"/>
@@ -1201,41 +1228,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="d7ca9d09-e945-4454-89c0-0fb2428ab3c7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="1f90ba80-b527-4106-9f71-68cac0b6de9a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="91079492-2b6a-49b1-9706-a9044452f153">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5792494-1AB7-466D-BEFC-E0FA4BC52E28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{067CDFDC-11B5-4108-B9D5-E43860737094}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d7ca9d09-e945-4454-89c0-0fb2428ab3c7"/>
+    <ds:schemaRef ds:uri="1f90ba80-b527-4106-9f71-68cac0b6de9a"/>
+    <ds:schemaRef ds:uri="91079492-2b6a-49b1-9706-a9044452f153"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB3F316-866A-46FE-9D78-EBB335E8CE6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBB3F316-866A-46FE-9D78-EBB335E8CE6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{067CDFDC-11B5-4108-B9D5-E43860737094}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5792494-1AB7-466D-BEFC-E0FA4BC52E28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="91079492-2b6a-49b1-9706-a9044452f153"/>
+    <ds:schemaRef ds:uri="d7ca9d09-e945-4454-89c0-0fb2428ab3c7"/>
+    <ds:schemaRef ds:uri="1f90ba80-b527-4106-9f71-68cac0b6de9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>